--- a/tutorial01/lab1/lab1.xlsx
+++ b/tutorial01/lab1/lab1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liht/Desktop/learning-vis-tools/tutorial01/lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947DA7A-CFD1-214F-92E9-3C8E9BB7F06F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D1EAB-D9AA-484A-832F-31133E51F198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{12EABE85-968D-CE4D-A6B4-A8396349E782}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{12EABE85-968D-CE4D-A6B4-A8396349E782}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="LongForm" sheetId="5" r:id="rId5"/>
     <sheet name="Pivot" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -587,6 +587,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -602,6 +605,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -617,6 +623,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -632,6 +641,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2326,7 +2338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEC9EC66-DBB4-CA48-A663-AA55340AAAC3}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEC9EC66-DBB4-CA48-A663-AA55340AAAC3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -2778,15 +2790,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736C55C8-B219-6B4A-95AA-F45CEF145BB5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2794,36 +2806,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="str">
+        <f>VLOOKUP(Ranking!A2, Schools!A$2:B$5, 2, FALSE)</f>
+        <v>Engineering</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="str">
+        <f>VLOOKUP(Ranking!A3, Schools!A$2:B$5, 2, FALSE)</f>
+        <v>Engineering</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="str">
+        <f>VLOOKUP(Ranking!A4, Schools!A$2:B$5, 2, FALSE)</f>
+        <v>Science</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>16</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(Ranking!A5, Schools!A$2:B$5, 2, FALSE)</f>
+        <v>Business</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2865,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3146,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A57342-2118-D148-A548-7CE15C80D9FC}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
